--- a/seminar_1/Семинар1_данные.xlsx
+++ b/seminar_1/Семинар1_данные.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UC\Desktop\GB\HW\Excel\seminar_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6058897-4657-422F-A14D-B279125D2F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29228F1-617B-42BB-9D6C-F2FA172963DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3C993F87-5E2B-4514-AE04-227014C39127}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -177,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,7 +501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,7 +786,7 @@
       <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <f>SUM(H2:H11)</f>
         <v>50040</v>
       </c>
